--- a/reports/resnet18_23_no_MMTM/prediction/6/probability_test_6.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/6/probability_test_6.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9528588056564331</v>
+        <v>0.6103855967521667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.047141183167696</v>
+        <v>0.3896144032478333</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3880174160003662</v>
+        <v>0.3897892534732819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6119825839996338</v>
+        <v>0.6102107167243958</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.250913143157959</v>
+        <v>0.1268309205770493</v>
       </c>
       <c r="C4" t="n">
-        <v>0.749086856842041</v>
+        <v>0.8731691241264343</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2136841267347336</v>
+        <v>0.0359463170170784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.78631591796875</v>
+        <v>0.964053750038147</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6681928634643555</v>
+        <v>0.4624552428722382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3318071365356445</v>
+        <v>0.5375447273254395</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5527119636535645</v>
+        <v>0.4169344305992126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4472879767417908</v>
+        <v>0.5830655694007874</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.877808690071106</v>
+        <v>0.8632736206054688</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1221912801265717</v>
+        <v>0.1367263942956924</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1129969209432602</v>
+        <v>0.0222310870885849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8870030641555786</v>
+        <v>0.9777688980102539</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1469937562942505</v>
+        <v>0.02233853749930859</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8530062437057495</v>
+        <v>0.9776614904403687</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7802213430404663</v>
+        <v>0.5096752643585205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2197787165641785</v>
+        <v>0.4903246760368347</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6867756843566895</v>
+        <v>0.4042860269546509</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3132243752479553</v>
+        <v>0.5957140326499939</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1811828315258026</v>
+        <v>0.02260187827050686</v>
       </c>
       <c r="C13" t="n">
-        <v>0.818817138671875</v>
+        <v>0.977398157119751</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0813630223274231</v>
+        <v>0.02076077833771706</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9186369776725769</v>
+        <v>0.9792392253875732</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1029127836227417</v>
+        <v>0.01158617436885834</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8970872163772583</v>
+        <v>0.9884138107299805</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3016074299812317</v>
+        <v>0.1240422427654266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6983925104141235</v>
+        <v>0.8759577870368958</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4650172293186188</v>
+        <v>0.2994308173656464</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5349828004837036</v>
+        <v>0.7005691528320312</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4729506373405457</v>
+        <v>0.05649026110768318</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5270494222640991</v>
+        <v>0.9435097575187683</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1881823092699051</v>
+        <v>0.0215744860470295</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8118177056312561</v>
+        <v>0.9784255027770996</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2676690220832825</v>
+        <v>0.02805497124791145</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7323309183120728</v>
+        <v>0.9719449877738953</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1278994381427765</v>
+        <v>0.01638065837323666</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8721005916595459</v>
+        <v>0.9836193323135376</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2824514508247375</v>
+        <v>0.1236925721168518</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7175485491752625</v>
+        <v>0.8763074278831482</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
